--- a/Attendance/Web/aspnet-core/src/Pixel.Attendance.Web.Mvc/wwwroot/assets/SampleFiles/ImportUsersSampleFile.xlsx
+++ b/Attendance/Web/aspnet-core/src/Pixel.Attendance.Web.Mvc/wwwroot/assets/SampleFiles/ImportUsersSampleFile.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\aspnet-zero-core\aspnet-core\src\MyCompanyName.AbpZeroTemplate.Web.Mvc\wwwroot\assets\SampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gec\Attendance\Web\aspnet-core\src\Pixel.Attendance.Web.Mvc\wwwroot\assets\SampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C2C3D9-1A95-4A1D-986C-B503FDB012D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43AB8392-857F-4ABD-83B0-FE7F14CA1608}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>PhoneNumber</t>
   </si>
@@ -79,12 +78,24 @@
   </si>
   <si>
     <t>AssignedRoleNames (comma seperated)</t>
+  </si>
+  <si>
+    <t>OrganizationUnitId</t>
+  </si>
+  <si>
+    <t>FingerCode</t>
+  </si>
+  <si>
+    <t>CivilId</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C978A8E4-000E-4DA7-8DC7-D6F102B29FC1}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,9 +467,12 @@
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -480,8 +494,20 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -504,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -527,13 +553,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{0C8CE252-965C-4293-A7D7-173AAAF9CBDD}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{02DF843C-55E8-48CE-8E2C-B32A932C2984}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
